--- a/table_model____spi-3__lasso_($\beta_=_$1.0).xlsx
+++ b/table_model____spi-3__lasso_($\beta_=_$1.0).xlsx
@@ -690,7 +690,7 @@
         <v>0.798426952</v>
       </c>
       <c r="B2">
-        <v>0.8543961607321182</v>
+        <v>0.883116993719734</v>
       </c>
       <c r="C2">
         <v>0.8834056960012547</v>
@@ -845,7 +845,7 @@
         <v>-0.135008744</v>
       </c>
       <c r="B3">
-        <v>0.7487016821279483</v>
+        <v>0.7734235047041846</v>
       </c>
       <c r="C3">
         <v>0.7736685118904481</v>
@@ -1000,7 +1000,7 @@
         <v>0.483128577</v>
       </c>
       <c r="B4">
-        <v>0.2031894418658139</v>
+        <v>0.2104966104216915</v>
       </c>
       <c r="C4">
         <v>0.2105491134379533</v>
@@ -1155,7 +1155,7 @@
         <v>0.358803155</v>
       </c>
       <c r="B5">
-        <v>-0.3131618140336098</v>
+        <v>-0.3221380399837128</v>
       </c>
       <c r="C5">
         <v>-0.3221606623283659</v>
@@ -1310,7 +1310,7 @@
         <v>0.9297649529999999</v>
       </c>
       <c r="B6">
-        <v>0.2077608788033205</v>
+        <v>0.2148652162430487</v>
       </c>
       <c r="C6">
         <v>0.2149233999144413</v>
@@ -1465,7 +1465,7 @@
         <v>-0.343866365</v>
       </c>
       <c r="B7">
-        <v>-0.5388523834420935</v>
+        <v>-0.5554962313654449</v>
       </c>
       <c r="C7">
         <v>-0.5556592879077855</v>
@@ -1620,7 +1620,7 @@
         <v>-0.394869887</v>
       </c>
       <c r="B8">
-        <v>-0.25411841584035</v>
+        <v>-0.2621492330493018</v>
       </c>
       <c r="C8">
         <v>-0.2622314097596287</v>
@@ -1775,7 +1775,7 @@
         <v>0.124976886</v>
       </c>
       <c r="B9">
-        <v>0.4438002496764221</v>
+        <v>0.4593179363640181</v>
       </c>
       <c r="C9">
         <v>0.4594313852310652</v>
@@ -1930,7 +1930,7 @@
         <v>0.714385868</v>
       </c>
       <c r="B10">
-        <v>0.8706447532949725</v>
+        <v>0.9005243144425917</v>
       </c>
       <c r="C10">
         <v>0.9007765222891166</v>
@@ -2085,7 +2085,7 @@
         <v>0.495936019</v>
       </c>
       <c r="B11">
-        <v>0.5199839903734687</v>
+        <v>0.5375381183219355</v>
       </c>
       <c r="C11">
         <v>0.5377105201397145</v>
@@ -2240,7 +2240,7 @@
         <v>-1.049232267</v>
       </c>
       <c r="B12">
-        <v>-0.839455398105704</v>
+        <v>-0.8652729942763692</v>
       </c>
       <c r="C12">
         <v>-0.8655138418144931</v>
@@ -2395,7 +2395,7 @@
         <v>-0.962528123</v>
       </c>
       <c r="B13">
-        <v>-0.5489249800824479</v>
+        <v>-0.5630849236071931</v>
       </c>
       <c r="C13">
         <v>-0.5632739840859932</v>
@@ -2550,7 +2550,7 @@
         <v>-0.823266309</v>
       </c>
       <c r="B14">
-        <v>-0.5461749576981831</v>
+        <v>-0.5621503691685834</v>
       </c>
       <c r="C14">
         <v>-0.5623887009824035</v>
@@ -2705,7 +2705,7 @@
         <v>-0.566899673</v>
       </c>
       <c r="B15">
-        <v>-0.4834727251337457</v>
+        <v>-0.4980132539309302</v>
       </c>
       <c r="C15">
         <v>-0.4981607792624887</v>
@@ -2860,7 +2860,7 @@
         <v>1.061843082</v>
       </c>
       <c r="B16">
-        <v>0.9094025468230498</v>
+        <v>0.9420303548197518</v>
       </c>
       <c r="C16">
         <v>0.9423075535797658</v>
@@ -3015,7 +3015,7 @@
         <v>1.223874814</v>
       </c>
       <c r="B17">
-        <v>1.145964543189353</v>
+        <v>1.186566923077074</v>
       </c>
       <c r="C17">
         <v>1.186907757563615</v>
@@ -3170,7 +3170,7 @@
         <v>1.243571118</v>
       </c>
       <c r="B18">
-        <v>1.084184227913665</v>
+        <v>1.123697665564034</v>
       </c>
       <c r="C18">
         <v>1.124036386355922</v>
@@ -3325,7 +3325,7 @@
         <v>-1.371414383</v>
       </c>
       <c r="B19">
-        <v>-1.13755133606689</v>
+        <v>-1.173076918193693</v>
       </c>
       <c r="C19">
         <v>-1.173360259534117</v>
@@ -3480,7 +3480,7 @@
         <v>-1.6161627</v>
       </c>
       <c r="B20">
-        <v>-1.263755688581602</v>
+        <v>-1.303486083347949</v>
       </c>
       <c r="C20">
         <v>-1.303788331537352</v>
@@ -3635,7 +3635,7 @@
         <v>-1.663613601</v>
       </c>
       <c r="B21">
-        <v>-1.219793223999446</v>
+        <v>-1.256745610315601</v>
       </c>
       <c r="C21">
         <v>-1.257081210750662</v>
@@ -3790,7 +3790,7 @@
         <v>-0.39083508</v>
       </c>
       <c r="B22">
-        <v>-0.3858427916881229</v>
+        <v>-0.39785720593528</v>
       </c>
       <c r="C22">
         <v>-0.3979645053968556</v>
@@ -3945,7 +3945,7 @@
         <v>-1.294350414</v>
       </c>
       <c r="B23">
-        <v>-1.284559382478391</v>
+        <v>-1.325091554007689</v>
       </c>
       <c r="C23">
         <v>-1.325463265987034</v>
@@ -4100,7 +4100,7 @@
         <v>-1.735350123</v>
       </c>
       <c r="B24">
-        <v>-1.611018648279426</v>
+        <v>-1.662810627492533</v>
       </c>
       <c r="C24">
         <v>-1.663246065890263</v>
@@ -4255,7 +4255,7 @@
         <v>-1.464171309</v>
       </c>
       <c r="B25">
-        <v>-1.124401521113028</v>
+        <v>-1.160113902378275</v>
       </c>
       <c r="C25">
         <v>-1.16038666076457</v>
@@ -4410,7 +4410,7 @@
         <v>-1.138267628</v>
       </c>
       <c r="B26">
-        <v>-1.105363774850339</v>
+        <v>-1.140054108467316</v>
       </c>
       <c r="C26">
         <v>-1.140328963328928</v>
@@ -4565,7 +4565,7 @@
         <v>-0.231935471</v>
       </c>
       <c r="B27">
-        <v>-0.1961087681678763</v>
+        <v>-0.201913014237361</v>
       </c>
       <c r="C27">
         <v>-0.2019398689005406</v>
@@ -4720,7 +4720,7 @@
         <v>-1.071257154</v>
       </c>
       <c r="B28">
-        <v>-1.218369239022747</v>
+        <v>-1.256143235221749</v>
       </c>
       <c r="C28">
         <v>-1.25646912655831</v>
@@ -4875,7 +4875,7 @@
         <v>-0.788753691</v>
       </c>
       <c r="B29">
-        <v>-0.6580983253354803</v>
+        <v>-0.6773372599923947</v>
       </c>
       <c r="C29">
         <v>-0.6775382670611814</v>
@@ -5030,7 +5030,7 @@
         <v>0.168216722</v>
       </c>
       <c r="B30">
-        <v>0.3267444561113393</v>
+        <v>0.3384310006781007</v>
       </c>
       <c r="C30">
         <v>0.3384802181289768</v>
@@ -5185,7 +5185,7 @@
         <v>0.589617249</v>
       </c>
       <c r="B31">
-        <v>1.087325127672163</v>
+        <v>1.12419967638983</v>
       </c>
       <c r="C31">
         <v>1.124467602747219</v>
@@ -5340,7 +5340,7 @@
         <v>0.34764818</v>
       </c>
       <c r="B32">
-        <v>0.8266342873325535</v>
+        <v>0.8546923913964547</v>
       </c>
       <c r="C32">
         <v>0.8548927613775192</v>
@@ -5495,7 +5495,7 @@
         <v>-1.151348471</v>
       </c>
       <c r="B33">
-        <v>-0.3183618323417259</v>
+        <v>-0.3276034253762765</v>
       </c>
       <c r="C33">
         <v>-0.327690344265077</v>
@@ -5650,7 +5650,7 @@
         <v>-0.696093006</v>
       </c>
       <c r="B34">
-        <v>-0.7032272596909739</v>
+        <v>-0.7250406286363725</v>
       </c>
       <c r="C34">
         <v>-0.7252259740042297</v>
@@ -5805,7 +5805,7 @@
         <v>-0.726012958</v>
       </c>
       <c r="B35">
-        <v>-0.4785338913931923</v>
+        <v>-0.4933098132665787</v>
       </c>
       <c r="C35">
         <v>-0.4934295671661999</v>
@@ -5960,7 +5960,7 @@
         <v>-0.087224411</v>
       </c>
       <c r="B36">
-        <v>-0.2364030296518529</v>
+        <v>-0.2430505405447085</v>
       </c>
       <c r="C36">
         <v>-0.2430995467321464</v>
@@ -6115,7 +6115,7 @@
         <v>-1.025152274</v>
       </c>
       <c r="B37">
-        <v>-0.7857407224710377</v>
+        <v>-0.8099329507926127</v>
       </c>
       <c r="C37">
         <v>-0.810171150176384</v>
@@ -6270,7 +6270,7 @@
         <v>-1.065636548</v>
       </c>
       <c r="B38">
-        <v>-0.927395977262916</v>
+        <v>-0.9554916999350824</v>
       </c>
       <c r="C38">
         <v>-0.9557745287046076</v>
@@ -6425,7 +6425,7 @@
         <v>-1.658517568</v>
       </c>
       <c r="B39">
-        <v>-0.940112191621153</v>
+        <v>-0.9667637181708052</v>
       </c>
       <c r="C39">
         <v>-0.9670468613503715</v>
@@ -6580,7 +6580,7 @@
         <v>0.670350201</v>
       </c>
       <c r="B40">
-        <v>0.3632356863817033</v>
+        <v>0.3756838758584351</v>
       </c>
       <c r="C40">
         <v>0.3758403629526835</v>
@@ -6735,7 +6735,7 @@
         <v>0.58174072</v>
       </c>
       <c r="B41">
-        <v>0.3707483205051784</v>
+        <v>0.3833771199839494</v>
       </c>
       <c r="C41">
         <v>0.3835206656166623</v>
@@ -6890,7 +6890,7 @@
         <v>1.034492187</v>
       </c>
       <c r="B42">
-        <v>0.6985512332394652</v>
+        <v>0.7223889339836348</v>
       </c>
       <c r="C42">
         <v>0.7226015053165136</v>
@@ -7045,7 +7045,7 @@
         <v>-0.330510864</v>
       </c>
       <c r="B43">
-        <v>-0.2630058643769519</v>
+        <v>-0.2697466597689135</v>
       </c>
       <c r="C43">
         <v>-0.2698512293552565</v>
@@ -7200,7 +7200,7 @@
         <v>0.468647097</v>
       </c>
       <c r="B44">
-        <v>0.4960742282391873</v>
+        <v>0.513576703916601</v>
       </c>
       <c r="C44">
         <v>0.5137055811013221</v>
@@ -7355,7 +7355,7 @@
         <v>1.030934397</v>
       </c>
       <c r="B45">
-        <v>1.539112802438647</v>
+        <v>1.593604802376164</v>
       </c>
       <c r="C45">
         <v>1.594028740789039</v>
@@ -7510,7 +7510,7 @@
         <v>1.479112841</v>
       </c>
       <c r="B46">
-        <v>2.010618090397364</v>
+        <v>2.082910585105029</v>
       </c>
       <c r="C46">
         <v>2.08348527129695</v>
@@ -7665,7 +7665,7 @@
         <v>1.817472853</v>
       </c>
       <c r="B47">
-        <v>2.264323345970175</v>
+        <v>2.344142952628738</v>
       </c>
       <c r="C47">
         <v>2.344776842922084</v>
@@ -7820,7 +7820,7 @@
         <v>0.369717394</v>
       </c>
       <c r="B48">
-        <v>0.8110940966384647</v>
+        <v>0.8391724023389752</v>
       </c>
       <c r="C48">
         <v>0.8393968755022624</v>
@@ -7975,7 +7975,7 @@
         <v>-0.162350195</v>
       </c>
       <c r="B49">
-        <v>-0.122224718074156</v>
+        <v>-0.1256016537727147</v>
       </c>
       <c r="C49">
         <v>-0.1256061839487239</v>
@@ -8130,7 +8130,7 @@
         <v>-0.729825744</v>
       </c>
       <c r="B50">
-        <v>-0.9259694628071665</v>
+        <v>-0.9552242358195805</v>
       </c>
       <c r="C50">
         <v>-0.955417376190566</v>
@@ -8285,7 +8285,7 @@
         <v>-0.317430882</v>
       </c>
       <c r="B51">
-        <v>-0.8339198530821873</v>
+        <v>-0.8602662515574869</v>
       </c>
       <c r="C51">
         <v>-0.860422313808604</v>
@@ -8440,7 +8440,7 @@
         <v>-0.490640104</v>
       </c>
       <c r="B52">
-        <v>-0.6995074778808839</v>
+        <v>-0.7214979173367667</v>
       </c>
       <c r="C52">
         <v>-0.7215835786089541</v>
@@ -8595,7 +8595,7 @@
         <v>-1.100609032</v>
       </c>
       <c r="B53">
-        <v>-0.9724922368200155</v>
+        <v>-1.002630547463725</v>
       </c>
       <c r="C53">
         <v>-1.002858710347249</v>
@@ -8750,7 +8750,7 @@
         <v>-0.351083172</v>
       </c>
       <c r="B54">
-        <v>-0.2489000233134207</v>
+        <v>-0.2563656776494083</v>
       </c>
       <c r="C54">
         <v>-0.2563948443220728</v>
@@ -8905,7 +8905,7 @@
         <v>0.476992209</v>
       </c>
       <c r="B55">
-        <v>0.84363571637833</v>
+        <v>0.873120216754867</v>
       </c>
       <c r="C55">
         <v>0.8733548461739444</v>
@@ -9060,7 +9060,7 @@
         <v>1.269210822</v>
       </c>
       <c r="B56">
-        <v>1.563408680728107</v>
+        <v>1.617966994459619</v>
       </c>
       <c r="C56">
         <v>1.618380804131142</v>
@@ -9215,7 +9215,7 @@
         <v>1.68335771</v>
       </c>
       <c r="B57">
-        <v>1.765345675457657</v>
+        <v>1.827141363934004</v>
       </c>
       <c r="C57">
         <v>1.827628576292453</v>
@@ -9370,7 +9370,7 @@
         <v>1.248614285</v>
       </c>
       <c r="B58">
-        <v>1.300232926825012</v>
+        <v>1.344934166294925</v>
       </c>
       <c r="C58">
         <v>1.34529652842524</v>
@@ -9525,7 +9525,7 @@
         <v>0.747520063</v>
       </c>
       <c r="B59">
-        <v>0.7035404977301808</v>
+        <v>0.7287225506788433</v>
       </c>
       <c r="C59">
         <v>0.7289374226566414</v>
@@ -9680,7 +9680,7 @@
         <v>-0.631971431</v>
       </c>
       <c r="B60">
-        <v>-0.4793023091860719</v>
+        <v>-0.4938822278882555</v>
       </c>
       <c r="C60">
         <v>-0.4940113283685252</v>
@@ -9835,7 +9835,7 @@
         <v>-0.10813702</v>
       </c>
       <c r="B61">
-        <v>0.1689194664423293</v>
+        <v>0.1753018815034183</v>
       </c>
       <c r="C61">
         <v>0.1753682164700747</v>
@@ -9990,7 +9990,7 @@
         <v>0.399434913</v>
       </c>
       <c r="B62">
-        <v>0.6653482586208451</v>
+        <v>0.6880228715996014</v>
       </c>
       <c r="C62">
         <v>0.6881993922353267</v>
@@ -10145,7 +10145,7 @@
         <v>0.598079881</v>
       </c>
       <c r="B63">
-        <v>0.8690449810428282</v>
+        <v>0.8982462437409268</v>
       </c>
       <c r="C63">
         <v>0.898462012923456</v>
@@ -10300,7 +10300,7 @@
         <v>-0.364643642</v>
       </c>
       <c r="B64">
-        <v>-0.1243228170019635</v>
+        <v>-0.1276902166430932</v>
       </c>
       <c r="C64">
         <v>-0.1277776413821917</v>
@@ -10455,7 +10455,7 @@
         <v>2.015990384</v>
       </c>
       <c r="B65">
-        <v>1.804319707318521</v>
+        <v>1.869265341871934</v>
       </c>
       <c r="C65">
         <v>1.869753742408043</v>
@@ -10610,7 +10610,7 @@
         <v>2.364869298</v>
       </c>
       <c r="B66">
-        <v>1.880339818629621</v>
+        <v>1.948516875934097</v>
       </c>
       <c r="C66">
         <v>1.949028441000678</v>
@@ -10765,7 +10765,7 @@
         <v>2.827580557</v>
       </c>
       <c r="B67">
-        <v>2.081693624034459</v>
+        <v>2.155132181184887</v>
       </c>
       <c r="C67">
         <v>2.155689199447062</v>
@@ -10920,7 +10920,7 @@
         <v>0.626809444</v>
       </c>
       <c r="B68">
-        <v>0.454155050277323</v>
+        <v>0.4700240045722358</v>
       </c>
       <c r="C68">
         <v>0.4701091372025032</v>
@@ -11075,7 +11075,7 @@
         <v>0.49739888</v>
       </c>
       <c r="B69">
-        <v>0.376953497560819</v>
+        <v>0.3902513940204743</v>
       </c>
       <c r="C69">
         <v>0.3903197776971423</v>
@@ -11230,7 +11230,7 @@
         <v>0.325808278</v>
       </c>
       <c r="B70">
-        <v>0.01090133613473741</v>
+        <v>0.01277845917513423</v>
       </c>
       <c r="C70">
         <v>0.01275823734646693</v>
@@ -11385,7 +11385,7 @@
         <v>0.365489314</v>
       </c>
       <c r="B71">
-        <v>0.09054556336096981</v>
+        <v>0.09418158463854573</v>
       </c>
       <c r="C71">
         <v>0.09420565289209955</v>
@@ -11540,7 +11540,7 @@
         <v>1.026844468</v>
       </c>
       <c r="B72">
-        <v>0.6910903378647695</v>
+        <v>0.7150162186583376</v>
       </c>
       <c r="C72">
         <v>0.7152213050441641</v>
@@ -11695,7 +11695,7 @@
         <v>0.699083059</v>
       </c>
       <c r="B73">
-        <v>0.5984394519507256</v>
+        <v>0.6228138995475769</v>
       </c>
       <c r="C73">
         <v>0.6230335514655223</v>
@@ -11850,7 +11850,7 @@
         <v>0.662278742</v>
       </c>
       <c r="B74">
-        <v>0.6214743350271764</v>
+        <v>0.6461288016344213</v>
       </c>
       <c r="C74">
         <v>0.6463296520071704</v>
@@ -12005,7 +12005,7 @@
         <v>0.456505507</v>
       </c>
       <c r="B75">
-        <v>0.3255844118163475</v>
+        <v>0.3383545128598551</v>
       </c>
       <c r="C75">
         <v>0.3384774186973569</v>
@@ -12160,7 +12160,7 @@
         <v>-0.181605646</v>
       </c>
       <c r="B76">
-        <v>-0.16814407737832</v>
+        <v>-0.1719166477994486</v>
       </c>
       <c r="C76">
         <v>-0.1720031750936994</v>
@@ -12315,7 +12315,7 @@
         <v>0.647849754</v>
       </c>
       <c r="B77">
-        <v>0.4217457318799518</v>
+        <v>0.4368812041204783</v>
       </c>
       <c r="C77">
         <v>0.4370177052836873</v>
@@ -12470,7 +12470,7 @@
         <v>-0.151031448</v>
       </c>
       <c r="B78">
-        <v>-0.4457945236007641</v>
+        <v>-0.4594227171984726</v>
       </c>
       <c r="C78">
         <v>-0.4595271271201387</v>
@@ -12625,7 +12625,7 @@
         <v>0.204622557</v>
       </c>
       <c r="B79">
-        <v>-0.02056871211948937</v>
+        <v>-0.01989217783657342</v>
       </c>
       <c r="C79">
         <v>-0.01987879223747159</v>
@@ -12780,7 +12780,7 @@
         <v>0.6727765610000001</v>
       </c>
       <c r="B80">
-        <v>0.6042760083276698</v>
+        <v>0.6246860855902633</v>
       </c>
       <c r="C80">
         <v>0.6248165179553146</v>
@@ -12935,7 +12935,7 @@
         <v>1.409854459</v>
       </c>
       <c r="B81">
-        <v>1.285479325982051</v>
+        <v>1.328402340583235</v>
       </c>
       <c r="C81">
         <v>1.328716907355148</v>
@@ -13090,7 +13090,7 @@
         <v>1.436857019</v>
       </c>
       <c r="B82">
-        <v>1.194957901813281</v>
+        <v>1.234177039130899</v>
       </c>
       <c r="C82">
         <v>1.234478267377775</v>
@@ -13245,7 +13245,7 @@
         <v>-0.078187413</v>
       </c>
       <c r="B83">
-        <v>-0.3833893733149983</v>
+        <v>-0.3946763292215997</v>
       </c>
       <c r="C83">
         <v>-0.3948354496230295</v>
@@ -13400,7 +13400,7 @@
         <v>-0.089819775</v>
       </c>
       <c r="B84">
-        <v>-0.1988660146621957</v>
+        <v>-0.2048352273597771</v>
       </c>
       <c r="C84">
         <v>-0.2049309903520856</v>
@@ -13555,7 +13555,7 @@
         <v>-0.951749297</v>
       </c>
       <c r="B85">
-        <v>-0.8865272796441401</v>
+        <v>-0.9145457146101897</v>
       </c>
       <c r="C85">
         <v>-0.9148290036686557</v>
@@ -13710,7 +13710,7 @@
         <v>-0.611776729</v>
       </c>
       <c r="B86">
-        <v>-0.3706736521471469</v>
+        <v>-0.3824600181046837</v>
       </c>
       <c r="C86">
         <v>-0.3826012623923122</v>
@@ -13865,7 +13865,7 @@
         <v>-1.503113365</v>
       </c>
       <c r="B87">
-        <v>-1.443574264898987</v>
+        <v>-1.488985972521054</v>
       </c>
       <c r="C87">
         <v>-1.489460849610977</v>
@@ -14020,7 +14020,7 @@
         <v>-0.95035541</v>
       </c>
       <c r="B88">
-        <v>-1.239526447971544</v>
+        <v>-1.278305294991149</v>
       </c>
       <c r="C88">
         <v>-1.278754491017571</v>
@@ -14175,7 +14175,7 @@
         <v>-0.869041164</v>
       </c>
       <c r="B89">
-        <v>-0.6840717850458092</v>
+        <v>-0.7051925130673919</v>
       </c>
       <c r="C89">
         <v>-0.7054306635969904</v>
@@ -14330,7 +14330,7 @@
         <v>-0.621619324</v>
       </c>
       <c r="B90">
-        <v>-0.5754513048141348</v>
+        <v>-0.5928362671015492</v>
       </c>
       <c r="C90">
         <v>-0.5930467479904679</v>
@@ -14485,7 +14485,7 @@
         <v>0.820733698</v>
       </c>
       <c r="B91">
-        <v>0.3506229436433156</v>
+        <v>0.3625266146260532</v>
       </c>
       <c r="C91">
         <v>0.3625812880682837</v>
@@ -14640,7 +14640,7 @@
         <v>1.157975086</v>
       </c>
       <c r="B92">
-        <v>0.6456817345382284</v>
+        <v>0.6671095278253153</v>
       </c>
       <c r="C92">
         <v>0.6672328773689397</v>
@@ -14795,7 +14795,7 @@
         <v>1.16180901</v>
       </c>
       <c r="B93">
-        <v>0.6746593471939635</v>
+        <v>0.6969174724530497</v>
       </c>
       <c r="C93">
         <v>0.6970543091309661</v>
@@ -14950,7 +14950,7 @@
         <v>0.673844651</v>
       </c>
       <c r="B94">
-        <v>0.4277468375222592</v>
+        <v>0.4422666916599874</v>
       </c>
       <c r="C94">
         <v>0.4423458427104165</v>
@@ -15105,7 +15105,7 @@
         <v>0.576154411</v>
       </c>
       <c r="B95">
-        <v>0.2646146568808148</v>
+        <v>0.2736861666587</v>
       </c>
       <c r="C95">
         <v>0.2737156377237441</v>
@@ -15260,7 +15260,7 @@
         <v>-0.247999935</v>
       </c>
       <c r="B96">
-        <v>-0.3468118177114375</v>
+        <v>-0.3574357399284184</v>
       </c>
       <c r="C96">
         <v>-0.3575739693611849</v>
@@ -15415,7 +15415,7 @@
         <v>-1.022406207</v>
       </c>
       <c r="B97">
-        <v>-1.089116062395676</v>
+        <v>-1.123450485946833</v>
       </c>
       <c r="C97">
         <v>-1.123791487918425</v>
@@ -15570,7 +15570,7 @@
         <v>-0.898568511</v>
       </c>
       <c r="B98">
-        <v>-0.7389204250708672</v>
+        <v>-0.7624015581681685</v>
       </c>
       <c r="C98">
         <v>-0.7626499185778016</v>
@@ -15725,7 +15725,7 @@
         <v>-0.35746994</v>
       </c>
       <c r="B99">
-        <v>-0.1715102074650521</v>
+        <v>-0.1766085111652667</v>
       </c>
       <c r="C99">
         <v>-0.1766926517186445</v>
@@ -15880,7 +15880,7 @@
         <v>-0.676801503</v>
       </c>
       <c r="B100">
-        <v>0.05616413678201134</v>
+        <v>0.05877926096789207</v>
       </c>
       <c r="C100">
         <v>0.05874151162864868</v>
@@ -16035,7 +16035,7 @@
         <v>-0.963128334</v>
       </c>
       <c r="B101">
-        <v>-0.1840523076260667</v>
+        <v>-0.1892864444973865</v>
       </c>
       <c r="C101">
         <v>-0.1893775079656437</v>
@@ -16190,7 +16190,7 @@
         <v>-1.089650457</v>
       </c>
       <c r="B102">
-        <v>-0.4454173865363787</v>
+        <v>-0.4587441546929567</v>
       </c>
       <c r="C102">
         <v>-0.4589172342295519</v>
@@ -16345,7 +16345,7 @@
         <v>-1.754660522</v>
       </c>
       <c r="B103">
-        <v>-1.016030902328547</v>
+        <v>-1.046591949290492</v>
       </c>
       <c r="C103">
         <v>-1.046922436522421</v>
@@ -16500,7 +16500,7 @@
         <v>-1.724252511</v>
       </c>
       <c r="B104">
-        <v>-1.568489572115253</v>
+        <v>-1.615465158265159</v>
       </c>
       <c r="C104">
         <v>-1.615951791650776</v>
@@ -16655,7 +16655,7 @@
         <v>-1.868408762</v>
       </c>
       <c r="B105">
-        <v>-1.788137176922882</v>
+        <v>-1.841441224158154</v>
       </c>
       <c r="C105">
         <v>-1.842006781917213</v>
@@ -16810,7 +16810,7 @@
         <v>-0.07703964000000001</v>
       </c>
       <c r="B106">
-        <v>-0.4300580791010353</v>
+        <v>-0.4424715763011001</v>
       </c>
       <c r="C106">
         <v>-0.4426432205694637</v>
@@ -16965,7 +16965,7 @@
         <v>-0.058419279</v>
       </c>
       <c r="B107">
-        <v>-0.5137459991029097</v>
+        <v>-0.5290842981174237</v>
       </c>
       <c r="C107">
         <v>-0.5292815569030113</v>
@@ -17120,7 +17120,7 @@
         <v>1.204247991</v>
       </c>
       <c r="B108">
-        <v>0.7001891568384941</v>
+        <v>0.7229102961871403</v>
       </c>
       <c r="C108">
         <v>0.7230713864183036</v>
@@ -17275,7 +17275,7 @@
         <v>1.183657404</v>
       </c>
       <c r="B109">
-        <v>1.29991010703244</v>
+        <v>1.342379514704446</v>
       </c>
       <c r="C109">
         <v>1.342710319309734</v>
@@ -17430,7 +17430,7 @@
         <v>1.235714724</v>
       </c>
       <c r="B110">
-        <v>1.55278081868041</v>
+        <v>1.604159367641256</v>
       </c>
       <c r="C110">
         <v>1.604567855897495</v>
@@ -17585,7 +17585,7 @@
         <v>1.193822144</v>
       </c>
       <c r="B111">
-        <v>1.064525048475331</v>
+        <v>1.100150531102012</v>
       </c>
       <c r="C111">
         <v>1.100419242702438</v>
@@ -17740,7 +17740,7 @@
         <v>1.680661976</v>
       </c>
       <c r="B112">
-        <v>1.548357525573235</v>
+        <v>1.60054010772117</v>
       </c>
       <c r="C112">
         <v>1.600926299887293</v>
@@ -17895,7 +17895,7 @@
         <v>1.735508276</v>
       </c>
       <c r="B113">
-        <v>1.744796299819944</v>
+        <v>1.803769854413962</v>
       </c>
       <c r="C113">
         <v>1.804215454941325</v>
@@ -18050,7 +18050,7 @@
         <v>1.120645867</v>
       </c>
       <c r="B114">
-        <v>1.640671785807556</v>
+        <v>1.695367787105069</v>
       </c>
       <c r="C114">
         <v>1.695779746425417</v>
@@ -18205,7 +18205,7 @@
         <v>0.220765723</v>
       </c>
       <c r="B115">
-        <v>0.5302506547128489</v>
+        <v>0.5478833810287235</v>
       </c>
       <c r="C115">
         <v>0.5479879884820623</v>
@@ -18360,7 +18360,7 @@
         <v>0.291028273</v>
       </c>
       <c r="B116">
-        <v>0.4371530479781593</v>
+        <v>0.4519560278809447</v>
       </c>
       <c r="C116">
         <v>0.4520228439700494</v>
@@ -18515,7 +18515,7 @@
         <v>0.583045483</v>
       </c>
       <c r="B117">
-        <v>1.139507284063288</v>
+        <v>1.176694732767472</v>
       </c>
       <c r="C117">
         <v>1.176961111618721</v>
@@ -18670,7 +18670,7 @@
         <v>1.459657324</v>
       </c>
       <c r="B118">
-        <v>1.505377785986222</v>
+        <v>1.554769829227329</v>
       </c>
       <c r="C118">
         <v>1.555160511250127</v>
@@ -18825,7 +18825,7 @@
         <v>0.957846139</v>
       </c>
       <c r="B119">
-        <v>1.310025744986251</v>
+        <v>1.352796755272946</v>
       </c>
       <c r="C119">
         <v>1.35312792918741</v>
@@ -18980,7 +18980,7 @@
         <v>1.102629823</v>
       </c>
       <c r="B120">
-        <v>0.5132846766101458</v>
+        <v>0.5299821120704974</v>
       </c>
       <c r="C120">
         <v>0.530089953807697</v>
@@ -19135,7 +19135,7 @@
         <v>1.64061108</v>
       </c>
       <c r="B121">
-        <v>1.420262402165495</v>
+        <v>1.466749946513026</v>
       </c>
       <c r="C121">
         <v>1.467114254140619</v>
@@ -19290,7 +19290,7 @@
         <v>1.886908677</v>
       </c>
       <c r="B122">
-        <v>1.489534509042336</v>
+        <v>1.538773792629724</v>
       </c>
       <c r="C122">
         <v>1.539164371300699</v>
@@ -19445,7 +19445,7 @@
         <v>1.733513011</v>
       </c>
       <c r="B123">
-        <v>1.858746993649947</v>
+        <v>1.921726376658394</v>
       </c>
       <c r="C123">
         <v>1.922216776850829</v>
@@ -19600,7 +19600,7 @@
         <v>-0.0362457</v>
       </c>
       <c r="B124">
-        <v>0.4568084757182131</v>
+        <v>0.4724825796444003</v>
       </c>
       <c r="C124">
         <v>0.4725614463875388</v>
@@ -19755,7 +19755,7 @@
         <v>0.430903942</v>
       </c>
       <c r="B125">
-        <v>0.8951779580070565</v>
+        <v>0.9251899844809377</v>
       </c>
       <c r="C125">
         <v>0.9254027235631027</v>
@@ -19910,7 +19910,7 @@
         <v>-0.243546309</v>
       </c>
       <c r="B126">
-        <v>0.007324773410337883</v>
+        <v>0.008268019610376875</v>
       </c>
       <c r="C126">
         <v>0.008223980970358841</v>
@@ -20065,7 +20065,7 @@
         <v>-0.931687809</v>
       </c>
       <c r="B127">
-        <v>-0.883873566667815</v>
+        <v>-0.9104032775578831</v>
       </c>
       <c r="C127">
         <v>-0.9106959715857201</v>
@@ -20220,7 +20220,7 @@
         <v>0.141116369</v>
       </c>
       <c r="B128">
-        <v>0.1407322296036058</v>
+        <v>0.1461913671547588</v>
       </c>
       <c r="C128">
         <v>0.1461775942422478</v>
@@ -20375,7 +20375,7 @@
         <v>0.56391939</v>
       </c>
       <c r="B129">
-        <v>0.568393299918041</v>
+        <v>0.587273189865653</v>
       </c>
       <c r="C129">
         <v>0.5873803344677944</v>
@@ -20530,7 +20530,7 @@
         <v>1.941603295</v>
       </c>
       <c r="B130">
-        <v>1.760233578779156</v>
+        <v>1.818057989194122</v>
       </c>
       <c r="C130">
         <v>1.818521981343463</v>
@@ -20685,7 +20685,7 @@
         <v>0.686945786</v>
       </c>
       <c r="B131">
-        <v>0.8047553102671384</v>
+        <v>0.8310994681881189</v>
       </c>
       <c r="C131">
         <v>0.8312851369729227</v>
@@ -20840,7 +20840,7 @@
         <v>0.489776809</v>
       </c>
       <c r="B132">
-        <v>1.135103844645164</v>
+        <v>1.171967814701027</v>
       </c>
       <c r="C132">
         <v>1.172252567902948</v>
@@ -20995,7 +20995,7 @@
         <v>-0.927615797</v>
       </c>
       <c r="B133">
-        <v>0.1190906640838347</v>
+        <v>0.1229289284271944</v>
       </c>
       <c r="C133">
         <v>0.1229296714960343</v>
@@ -21150,7 +21150,7 @@
         <v>-0.570785532</v>
       </c>
       <c r="B134">
-        <v>0.11418695244834</v>
+        <v>0.117975651568581</v>
       </c>
       <c r="C134">
         <v>0.1179742659071173</v>
@@ -21305,7 +21305,7 @@
         <v>0.629936161</v>
       </c>
       <c r="B135">
-        <v>0.2532341862027275</v>
+        <v>0.2619056444133643</v>
       </c>
       <c r="C135">
         <v>0.2619443976225598</v>
@@ -21460,7 +21460,7 @@
         <v>1.229927464</v>
       </c>
       <c r="B136">
-        <v>1.0952065701297</v>
+        <v>1.132052606855888</v>
       </c>
       <c r="C136">
         <v>1.132312528471843</v>
@@ -21615,7 +21615,7 @@
         <v>0.831135585</v>
       </c>
       <c r="B137">
-        <v>0.6140219645214475</v>
+        <v>0.6347000655479004</v>
       </c>
       <c r="C137">
         <v>0.6348348221348155</v>
@@ -21770,7 +21770,7 @@
         <v>-0.615633494</v>
       </c>
       <c r="B138">
-        <v>-0.1983547697159876</v>
+        <v>-0.2039228855206145</v>
       </c>
       <c r="C138">
         <v>-0.2040253394539691</v>
@@ -21925,7 +21925,7 @@
         <v>-0.504548817</v>
       </c>
       <c r="B139">
-        <v>-0.4718786457387886</v>
+        <v>-0.4857484074710422</v>
       </c>
       <c r="C139">
         <v>-0.4859241699656387</v>
